--- a/camara.xlsx
+++ b/camara.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repository\Code\Legislativas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4280E74B-3AA9-4500-89B2-D11C78630144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF13D21C-5C2D-420E-8C2C-96BFB44F72DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Votos" sheetId="2" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
+    <sheet name="Curules" sheetId="3" r:id="rId2"/>
+    <sheet name="Calculos" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="55">
   <si>
     <t> Caquetá</t>
   </si>
@@ -192,6 +193,12 @@
   </si>
   <si>
     <t>Umbral</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Curules</t>
   </si>
 </sst>
 </file>
@@ -518,9 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54730E74-64F0-4BC6-BE89-5585D48F06C3}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -539,6 +544,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
       <c r="B1" t="s">
         <v>39</v>
       </c>
@@ -808,11 +816,357 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6DDA9B1-EA4F-439B-9F4A-49ADF8D69BBB}">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <f>SUM(B2:B40)</f>
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:U35"/>
+      <selection activeCell="F23" sqref="F23:P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/camara.xlsx
+++ b/camara.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repository\Code\Legislativas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF13D21C-5C2D-420E-8C2C-96BFB44F72DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD237C64-82C7-4BBC-96F3-5EF84718B8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Votos" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="59">
   <si>
     <t> Caquetá</t>
   </si>
@@ -168,9 +168,6 @@
     <t>Mira</t>
   </si>
   <si>
-    <t>Unidad</t>
-  </si>
-  <si>
     <t>Polo</t>
   </si>
   <si>
@@ -199,6 +196,21 @@
   </si>
   <si>
     <t>Curules</t>
+  </si>
+  <si>
+    <t>Comunes</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>La U</t>
+  </si>
+  <si>
+    <t>ASI</t>
+  </si>
+  <si>
+    <t>Verde</t>
   </si>
 </sst>
 </file>
@@ -240,9 +252,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,29 +537,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54730E74-64F0-4BC6-BE89-5585D48F06C3}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.109375" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>39</v>
@@ -563,130 +583,223 @@
         <v>43</v>
       </c>
       <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" t="s">
         <v>48</v>
       </c>
-      <c r="L1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>267994</v>
+      </c>
+      <c r="C3">
+        <v>256562</v>
+      </c>
+      <c r="D3">
+        <v>22432</v>
+      </c>
+      <c r="E3">
+        <v>132392</v>
+      </c>
+      <c r="F3">
+        <v>40841</v>
+      </c>
+      <c r="G3">
+        <v>112722</v>
+      </c>
+      <c r="H3">
+        <v>129156</v>
+      </c>
+      <c r="I3">
+        <v>76478</v>
+      </c>
+      <c r="J3">
+        <v>4528</v>
+      </c>
+      <c r="K3">
+        <v>19650</v>
+      </c>
+      <c r="L3">
+        <v>557175</v>
+      </c>
+      <c r="M3">
+        <v>25920</v>
+      </c>
+      <c r="O3">
+        <v>6597</v>
+      </c>
+      <c r="P3">
+        <v>94346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>105426</v>
+      </c>
+      <c r="C5">
+        <v>133590</v>
+      </c>
+      <c r="D5">
+        <v>4527</v>
+      </c>
+      <c r="E5">
+        <v>414032</v>
+      </c>
+      <c r="F5">
+        <v>14104</v>
+      </c>
+      <c r="G5">
+        <v>115342</v>
+      </c>
+      <c r="I5">
+        <v>21417</v>
+      </c>
+      <c r="J5">
+        <v>9361</v>
+      </c>
+      <c r="K5">
+        <v>7529</v>
+      </c>
+      <c r="L5">
+        <v>77489</v>
+      </c>
+      <c r="M5">
+        <v>7458</v>
+      </c>
+      <c r="O5">
+        <v>3546</v>
+      </c>
+      <c r="P5">
+        <v>38659</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -708,63 +821,63 @@
       <c r="G23">
         <v>68699</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>60504</v>
       </c>
-      <c r="I23">
+      <c r="L23">
         <v>15187</v>
       </c>
-      <c r="J23">
+      <c r="M23">
         <v>6181</v>
       </c>
-      <c r="K23">
+      <c r="N23">
         <v>1087</v>
       </c>
-      <c r="L23">
+      <c r="P23">
         <v>27581</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -819,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6DDA9B1-EA4F-439B-9F4A-49ADF8D69BBB}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -831,10 +944,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1163,82 +1276,116 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:P23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="F1" t="str">
+        <f>Votos!B1</f>
+        <v>Liberal</v>
+      </c>
+      <c r="G1" t="str">
+        <f>Votos!C1</f>
+        <v xml:space="preserve">Conservador </v>
+      </c>
+      <c r="H1" t="str">
+        <f>Votos!D1</f>
+        <v>OC</v>
+      </c>
+      <c r="I1" t="str">
+        <f>Votos!E1</f>
+        <v>Radical</v>
+      </c>
+      <c r="J1" t="str">
+        <f>Votos!F1</f>
+        <v>Mira</v>
+      </c>
+      <c r="K1" t="str">
+        <f>Votos!G1</f>
+        <v>La U</v>
+      </c>
+      <c r="L1" t="str">
+        <f>Votos!H1</f>
+        <v>Verde</v>
+      </c>
+      <c r="M1" t="str">
+        <f>Votos!I1</f>
+        <v>Polo</v>
+      </c>
+      <c r="N1" t="str">
+        <f>Votos!J1</f>
+        <v>UP</v>
+      </c>
+      <c r="O1" t="str">
+        <f>Votos!K1</f>
+        <v>ASI</v>
+      </c>
+      <c r="P1" t="str">
+        <f>Votos!L1</f>
+        <v>Democratico</v>
+      </c>
+      <c r="Q1" t="str">
+        <f>Votos!M1</f>
+        <v>Somos</v>
+      </c>
+      <c r="R1" t="str">
+        <f>Votos!N1</f>
+        <v>TSC</v>
+      </c>
+      <c r="S1" t="str">
+        <f>Votos!O1</f>
+        <v>Comunes</v>
+      </c>
+      <c r="T1" t="str">
+        <f>Votos!P1</f>
+        <v>Blanco</v>
+      </c>
+      <c r="U1">
+        <f>Votos!Q1</f>
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <f>Votos!R1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
-        <f t="shared" ref="C2:C40" si="0">SUM(F2:P2)</f>
+      <c r="C2" s="3">
+        <f>SUM(F2:V2)</f>
         <v>0</v>
       </c>
       <c r="D2" s="1">
@@ -1249,55 +1396,171 @@
         <f>ROUNDDOWN(D2/2,0)</f>
         <v>0</v>
       </c>
+      <c r="F2">
+        <f>Votos!B2</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>Votos!C2</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>Votos!D2</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>Votos!E2</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>Votos!F2</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>Votos!G2</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>Votos!H2</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>Votos!I2</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>Votos!J2</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>Votos!K2</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>Votos!L2</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>Votos!M2</f>
+        <v>0</v>
+      </c>
       <c r="R2">
-        <v>6703</v>
+        <f>Votos!N2</f>
+        <v>0</v>
       </c>
       <c r="S2">
-        <f>SUM(R2:R7)</f>
-        <v>75888</v>
+        <f>Votos!O2</f>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>5454</v>
+        <f>Votos!P2</f>
+        <v>0</v>
       </c>
       <c r="U2">
-        <f>SUM(T2:T7)</f>
-        <v>60504</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+        <f>Votos!Q2</f>
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f>Votos!R2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3">
         <v>17</v>
       </c>
-      <c r="C3" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C40" si="0">SUM(F3:V3)</f>
+        <v>1746793</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D40" si="1">IF(C3&gt;0,C3/B3,0)</f>
-        <v>0</v>
+        <v>102752.5294117647</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E40" si="2">ROUNDDOWN(D3/2,0)</f>
-        <v>0</v>
+        <v>51376</v>
+      </c>
+      <c r="F3">
+        <f>Votos!B3</f>
+        <v>267994</v>
+      </c>
+      <c r="G3">
+        <f>Votos!C3</f>
+        <v>256562</v>
+      </c>
+      <c r="H3">
+        <f>Votos!D3</f>
+        <v>22432</v>
+      </c>
+      <c r="I3">
+        <f>Votos!E3</f>
+        <v>132392</v>
+      </c>
+      <c r="J3">
+        <f>Votos!F3</f>
+        <v>40841</v>
+      </c>
+      <c r="K3">
+        <f>Votos!G3</f>
+        <v>112722</v>
+      </c>
+      <c r="L3">
+        <f>Votos!H3</f>
+        <v>129156</v>
+      </c>
+      <c r="M3">
+        <f>Votos!I3</f>
+        <v>76478</v>
+      </c>
+      <c r="N3">
+        <f>Votos!J3</f>
+        <v>4528</v>
+      </c>
+      <c r="O3">
+        <f>Votos!K3</f>
+        <v>19650</v>
+      </c>
+      <c r="P3">
+        <f>Votos!L3</f>
+        <v>557175</v>
+      </c>
+      <c r="Q3">
+        <f>Votos!M3</f>
+        <v>25920</v>
       </c>
       <c r="R3">
-        <v>30966</v>
+        <f>Votos!N3</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>Votos!O3</f>
+        <v>6597</v>
       </c>
       <c r="T3">
-        <v>41467</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+        <f>Votos!P3</f>
+        <v>94346</v>
+      </c>
+      <c r="U3">
+        <f>Votos!Q3</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f>Votos!R3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1309,47 +1572,171 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F4">
+        <f>Votos!B4</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>Votos!C4</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>Votos!D4</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>Votos!E4</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>Votos!F4</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>Votos!G4</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>Votos!H4</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>Votos!I4</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>Votos!J4</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>Votos!K4</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f>Votos!L4</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f>Votos!M4</f>
+        <v>0</v>
+      </c>
       <c r="R4">
-        <v>23843</v>
+        <f>Votos!N4</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f>Votos!O4</f>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>6565</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+        <f>Votos!P4</f>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f>Votos!Q4</f>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f>Votos!R4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>952480</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>136068.57142857142</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>68034</v>
+      </c>
+      <c r="F5">
+        <f>Votos!B5</f>
+        <v>105426</v>
+      </c>
+      <c r="G5">
+        <f>Votos!C5</f>
+        <v>133590</v>
+      </c>
+      <c r="H5">
+        <f>Votos!D5</f>
+        <v>4527</v>
+      </c>
+      <c r="I5">
+        <f>Votos!E5</f>
+        <v>414032</v>
+      </c>
+      <c r="J5">
+        <f>Votos!F5</f>
+        <v>14104</v>
+      </c>
+      <c r="K5">
+        <f>Votos!G5</f>
+        <v>115342</v>
+      </c>
+      <c r="L5">
+        <f>Votos!H5</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>Votos!I5</f>
+        <v>21417</v>
+      </c>
+      <c r="N5">
+        <f>Votos!J5</f>
+        <v>9361</v>
+      </c>
+      <c r="O5">
+        <f>Votos!K5</f>
+        <v>7529</v>
+      </c>
+      <c r="P5">
+        <f>Votos!L5</f>
+        <v>77489</v>
+      </c>
+      <c r="Q5">
+        <f>Votos!M5</f>
+        <v>7458</v>
       </c>
       <c r="R5">
-        <v>555</v>
+        <f>Votos!N5</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f>Votos!O5</f>
+        <v>3546</v>
       </c>
       <c r="T5">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+        <f>Votos!P5</f>
+        <v>38659</v>
+      </c>
+      <c r="U5">
+        <f>Votos!Q5</f>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f>Votos!R5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6">
         <v>18</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1361,21 +1748,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F6">
+        <f>Votos!B6</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>Votos!C6</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>Votos!D6</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>Votos!E6</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>Votos!F6</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>Votos!G6</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>Votos!H6</f>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f>Votos!I6</f>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>Votos!J6</f>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f>Votos!K6</f>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f>Votos!L6</f>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f>Votos!M6</f>
+        <v>0</v>
+      </c>
       <c r="R6">
-        <v>722</v>
+        <f>Votos!N6</f>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f>Votos!O6</f>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+        <f>Votos!P6</f>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f>Votos!Q6</f>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f>Votos!R6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1387,21 +1836,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F7">
+        <f>Votos!B7</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>Votos!C7</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>Votos!D7</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>Votos!E7</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>Votos!F7</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>Votos!G7</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>Votos!H7</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f>Votos!I7</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>Votos!J7</f>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f>Votos!K7</f>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f>Votos!L7</f>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f>Votos!M7</f>
+        <v>0</v>
+      </c>
       <c r="R7">
-        <v>13099</v>
+        <f>Votos!N7</f>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f>Votos!O7</f>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>4524</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+        <f>Votos!P7</f>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f>Votos!Q7</f>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f>Votos!R7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1413,29 +1924,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F8">
+        <f>Votos!B8</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>Votos!C8</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>Votos!D8</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>Votos!E8</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>Votos!F8</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>Votos!G8</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f>Votos!H8</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f>Votos!I8</f>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f>Votos!J8</f>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f>Votos!K8</f>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f>Votos!L8</f>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f>Votos!M8</f>
+        <v>0</v>
+      </c>
       <c r="R8">
-        <v>9636</v>
+        <f>Votos!N8</f>
+        <v>0</v>
       </c>
       <c r="S8">
-        <f>SUM(R8:R13)</f>
-        <v>140738</v>
+        <f>Votos!O8</f>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>3974</v>
+        <f>Votos!P8</f>
+        <v>0</v>
       </c>
       <c r="U8">
-        <f>SUM(T8:T13)</f>
-        <v>15187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+        <f>Votos!Q8</f>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f>Votos!R8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1447,21 +2012,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F9">
+        <f>Votos!B9</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>Votos!C9</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>Votos!D9</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>Votos!E9</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f>Votos!F9</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>Votos!G9</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f>Votos!H9</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f>Votos!I9</f>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>Votos!J9</f>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f>Votos!K9</f>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f>Votos!L9</f>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f>Votos!M9</f>
+        <v>0</v>
+      </c>
       <c r="R9">
-        <v>60539</v>
+        <f>Votos!N9</f>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f>Votos!O9</f>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>4498</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+        <f>Votos!P9</f>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f>Votos!Q9</f>
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <f>Votos!R9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1473,21 +2100,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F10">
+        <f>Votos!B10</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>Votos!C10</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>Votos!D10</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>Votos!E10</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f>Votos!F10</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f>Votos!G10</f>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f>Votos!H10</f>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f>Votos!I10</f>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f>Votos!J10</f>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f>Votos!K10</f>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f>Votos!L10</f>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f>Votos!M10</f>
+        <v>0</v>
+      </c>
       <c r="R10">
-        <v>34678</v>
+        <f>Votos!N10</f>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f>Votos!O10</f>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+        <f>Votos!P10</f>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f>Votos!Q10</f>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f>Votos!R10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1499,21 +2188,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F11">
+        <f>Votos!B11</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>Votos!C11</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>Votos!D11</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>Votos!E11</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f>Votos!F11</f>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f>Votos!G11</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>Votos!H11</f>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f>Votos!I11</f>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f>Votos!J11</f>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f>Votos!K11</f>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f>Votos!L11</f>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f>Votos!M11</f>
+        <v>0</v>
+      </c>
       <c r="R11">
-        <v>1238</v>
+        <f>Votos!N11</f>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f>Votos!O11</f>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+        <f>Votos!P11</f>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f>Votos!Q11</f>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f>Votos!R11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1525,21 +2276,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F12">
+        <f>Votos!B12</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>Votos!C12</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>Votos!D12</f>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f>Votos!E12</f>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f>Votos!F12</f>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f>Votos!G12</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>Votos!H12</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f>Votos!I12</f>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f>Votos!J12</f>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f>Votos!K12</f>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f>Votos!L12</f>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f>Votos!M12</f>
+        <v>0</v>
+      </c>
       <c r="R12">
-        <v>21461</v>
+        <f>Votos!N12</f>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f>Votos!O12</f>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>1663</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+        <f>Votos!P12</f>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f>Votos!Q12</f>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f>Votos!R12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1551,21 +2364,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F13">
+        <f>Votos!B13</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>Votos!C13</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>Votos!D13</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f>Votos!E13</f>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f>Votos!F13</f>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f>Votos!G13</f>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f>Votos!H13</f>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f>Votos!I13</f>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f>Votos!J13</f>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f>Votos!K13</f>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f>Votos!L13</f>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f>Votos!M13</f>
+        <v>0</v>
+      </c>
       <c r="R13">
-        <v>13186</v>
+        <f>Votos!N13</f>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f>Votos!O13</f>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+        <f>Votos!P13</f>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f>Votos!Q13</f>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f>Votos!R13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1577,29 +2452,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F14">
+        <f>Votos!B14</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>Votos!C14</f>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f>Votos!D14</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f>Votos!E14</f>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f>Votos!F14</f>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f>Votos!G14</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f>Votos!H14</f>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f>Votos!I14</f>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>Votos!J14</f>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f>Votos!K14</f>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f>Votos!L14</f>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f>Votos!M14</f>
+        <v>0</v>
+      </c>
       <c r="R14">
-        <v>414</v>
+        <f>Votos!N14</f>
+        <v>0</v>
       </c>
       <c r="S14">
-        <f>SUM(R14:R17)</f>
-        <v>1232</v>
+        <f>Votos!O14</f>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>658</v>
+        <f>Votos!P14</f>
+        <v>0</v>
       </c>
       <c r="U14">
-        <f>SUM(T14:T19)</f>
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+        <f>Votos!Q14</f>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f>Votos!R14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1611,21 +2540,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F15">
+        <f>Votos!B15</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>Votos!C15</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f>Votos!D15</f>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f>Votos!E15</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f>Votos!F15</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f>Votos!G15</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>Votos!H15</f>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f>Votos!I15</f>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f>Votos!J15</f>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f>Votos!K15</f>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f>Votos!L15</f>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f>Votos!M15</f>
+        <v>0</v>
+      </c>
       <c r="R15">
-        <v>446</v>
+        <f>Votos!N15</f>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f>Votos!O15</f>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+        <f>Votos!P15</f>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f>Votos!Q15</f>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f>Votos!R15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16">
         <v>7</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1637,18 +2628,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F16">
+        <f>Votos!B16</f>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f>Votos!C16</f>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f>Votos!D16</f>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f>Votos!E16</f>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f>Votos!F16</f>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f>Votos!G16</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>Votos!H16</f>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f>Votos!I16</f>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f>Votos!J16</f>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f>Votos!K16</f>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f>Votos!L16</f>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f>Votos!M16</f>
+        <v>0</v>
+      </c>
       <c r="R16">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+        <f>Votos!N16</f>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f>Votos!O16</f>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f>Votos!P16</f>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f>Votos!Q16</f>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f>Votos!R16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1660,18 +2716,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F17">
+        <f>Votos!B17</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>Votos!C17</f>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f>Votos!D17</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>Votos!E17</f>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f>Votos!F17</f>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f>Votos!G17</f>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f>Votos!H17</f>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f>Votos!I17</f>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f>Votos!J17</f>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f>Votos!K17</f>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f>Votos!L17</f>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f>Votos!M17</f>
+        <v>0</v>
+      </c>
       <c r="R17">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+        <f>Votos!N17</f>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f>Votos!O17</f>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f>Votos!P17</f>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f>Votos!Q17</f>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f>Votos!R17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1683,22 +2804,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F18">
+        <f>Votos!B18</f>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f>Votos!C18</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f>Votos!D18</f>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f>Votos!E18</f>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f>Votos!F18</f>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f>Votos!G18</f>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f>Votos!H18</f>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f>Votos!I18</f>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f>Votos!J18</f>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f>Votos!K18</f>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f>Votos!L18</f>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f>Votos!M18</f>
+        <v>0</v>
+      </c>
       <c r="R18">
-        <v>4659</v>
+        <f>Votos!N18</f>
+        <v>0</v>
       </c>
       <c r="S18">
-        <f>SUM(R18:R23)</f>
-        <v>67140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+        <f>Votos!O18</f>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f>Votos!P18</f>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f>Votos!Q18</f>
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <f>Votos!R18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1710,18 +2892,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F19">
+        <f>Votos!B19</f>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f>Votos!C19</f>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f>Votos!D19</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f>Votos!E19</f>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f>Votos!F19</f>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f>Votos!G19</f>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f>Votos!H19</f>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f>Votos!I19</f>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f>Votos!J19</f>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f>Votos!K19</f>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f>Votos!L19</f>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f>Votos!M19</f>
+        <v>0</v>
+      </c>
       <c r="R19">
-        <v>48211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+        <f>Votos!N19</f>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f>Votos!O19</f>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f>Votos!P19</f>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f>Votos!Q19</f>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f>Votos!R19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1733,18 +2980,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F20">
+        <f>Votos!B20</f>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f>Votos!C20</f>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f>Votos!D20</f>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f>Votos!E20</f>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f>Votos!F20</f>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f>Votos!G20</f>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f>Votos!H20</f>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f>Votos!I20</f>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f>Votos!J20</f>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f>Votos!K20</f>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f>Votos!L20</f>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f>Votos!M20</f>
+        <v>0</v>
+      </c>
       <c r="R20">
-        <v>7844</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+        <f>Votos!N20</f>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f>Votos!O20</f>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f>Votos!P20</f>
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <f>Votos!Q20</f>
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f>Votos!R20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1756,18 +3068,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F21">
+        <f>Votos!B21</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f>Votos!C21</f>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f>Votos!D21</f>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f>Votos!E21</f>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f>Votos!F21</f>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f>Votos!G21</f>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f>Votos!H21</f>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f>Votos!I21</f>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f>Votos!J21</f>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f>Votos!K21</f>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f>Votos!L21</f>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f>Votos!M21</f>
+        <v>0</v>
+      </c>
       <c r="R21">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+        <f>Votos!N21</f>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f>Votos!O21</f>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f>Votos!P21</f>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f>Votos!Q21</f>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f>Votos!R21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1779,18 +3156,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F22">
+        <f>Votos!B22</f>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f>Votos!C22</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>Votos!D22</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f>Votos!E22</f>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f>Votos!F22</f>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f>Votos!G22</f>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f>Votos!H22</f>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f>Votos!I22</f>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f>Votos!J22</f>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f>Votos!K22</f>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f>Votos!L22</f>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f>Votos!M22</f>
+        <v>0</v>
+      </c>
       <c r="R22">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+        <f>Votos!N22</f>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f>Votos!O22</f>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f>Votos!P22</f>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f>Votos!Q22</f>
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <f>Votos!R22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
         <f t="shared" si="0"/>
         <v>475206</v>
       </c>
@@ -1803,50 +3245,82 @@
         <v>47520</v>
       </c>
       <c r="F23">
+        <f>Votos!B23</f>
         <v>75888</v>
       </c>
       <c r="G23">
+        <f>Votos!C23</f>
         <v>140738</v>
       </c>
       <c r="H23">
+        <f>Votos!D23</f>
         <v>1232</v>
       </c>
       <c r="I23">
+        <f>Votos!E23</f>
         <v>67140</v>
       </c>
       <c r="J23">
+        <f>Votos!F23</f>
         <v>10969</v>
       </c>
       <c r="K23">
+        <f>Votos!G23</f>
         <v>68699</v>
       </c>
       <c r="L23">
+        <f>Votos!H23</f>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f>Votos!I23</f>
         <v>60504</v>
       </c>
-      <c r="M23">
+      <c r="N23">
+        <f>Votos!J23</f>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f>Votos!K23</f>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f>Votos!L23</f>
         <v>15187</v>
       </c>
-      <c r="N23">
+      <c r="Q23">
+        <f>Votos!M23</f>
         <v>6181</v>
       </c>
-      <c r="O23">
+      <c r="R23">
+        <f>Votos!N23</f>
         <v>1087</v>
       </c>
-      <c r="P23">
+      <c r="S23">
+        <f>Votos!O23</f>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f>Votos!P23</f>
         <v>27581</v>
       </c>
-      <c r="R23">
-        <v>4768</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U23">
+        <f>Votos!Q23</f>
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <f>Votos!R23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1858,22 +3332,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F24">
+        <f>Votos!B24</f>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f>Votos!C24</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f>Votos!D24</f>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f>Votos!E24</f>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f>Votos!F24</f>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f>Votos!G24</f>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f>Votos!H24</f>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f>Votos!I24</f>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f>Votos!J24</f>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f>Votos!K24</f>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f>Votos!L24</f>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f>Votos!M24</f>
+        <v>0</v>
+      </c>
       <c r="R24">
-        <v>1862</v>
+        <f>Votos!N24</f>
+        <v>0</v>
       </c>
       <c r="S24">
-        <f>SUM(R24:R29)</f>
-        <v>10969</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+        <f>Votos!O24</f>
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f>Votos!P24</f>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f>Votos!Q24</f>
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <f>Votos!R24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1885,18 +3420,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F25">
+        <f>Votos!B25</f>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f>Votos!C25</f>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f>Votos!D25</f>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f>Votos!E25</f>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f>Votos!F25</f>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f>Votos!G25</f>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f>Votos!H25</f>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f>Votos!I25</f>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f>Votos!J25</f>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f>Votos!K25</f>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f>Votos!L25</f>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f>Votos!M25</f>
+        <v>0</v>
+      </c>
       <c r="R25">
-        <v>2707</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+        <f>Votos!N25</f>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f>Votos!O25</f>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f>Votos!P25</f>
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <f>Votos!Q25</f>
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <f>Votos!R25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1908,18 +3508,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F26">
+        <f>Votos!B26</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>Votos!C26</f>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f>Votos!D26</f>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f>Votos!E26</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f>Votos!F26</f>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f>Votos!G26</f>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f>Votos!H26</f>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f>Votos!I26</f>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f>Votos!J26</f>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f>Votos!K26</f>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f>Votos!L26</f>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f>Votos!M26</f>
+        <v>0</v>
+      </c>
       <c r="R26">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+        <f>Votos!N26</f>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f>Votos!O26</f>
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <f>Votos!P26</f>
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <f>Votos!Q26</f>
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <f>Votos!R26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="B27">
         <v>4</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1931,18 +3596,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F27">
+        <f>Votos!B27</f>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f>Votos!C27</f>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f>Votos!D27</f>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f>Votos!E27</f>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f>Votos!F27</f>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f>Votos!G27</f>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f>Votos!H27</f>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f>Votos!I27</f>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f>Votos!J27</f>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f>Votos!K27</f>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f>Votos!L27</f>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f>Votos!M27</f>
+        <v>0</v>
+      </c>
       <c r="R27">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+        <f>Votos!N27</f>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f>Votos!O27</f>
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <f>Votos!P27</f>
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f>Votos!Q27</f>
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <f>Votos!R27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1954,18 +3684,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F28">
+        <f>Votos!B28</f>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f>Votos!C28</f>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f>Votos!D28</f>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f>Votos!E28</f>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f>Votos!F28</f>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f>Votos!G28</f>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f>Votos!H28</f>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f>Votos!I28</f>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f>Votos!J28</f>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f>Votos!K28</f>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f>Votos!L28</f>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f>Votos!M28</f>
+        <v>0</v>
+      </c>
       <c r="R28">
-        <v>2283</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+        <f>Votos!N28</f>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f>Votos!O28</f>
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f>Votos!P28</f>
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f>Votos!Q28</f>
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <f>Votos!R28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29">
         <v>7</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1977,18 +3772,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F29">
+        <f>Votos!B29</f>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f>Votos!C29</f>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f>Votos!D29</f>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f>Votos!E29</f>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f>Votos!F29</f>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f>Votos!G29</f>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f>Votos!H29</f>
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f>Votos!I29</f>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f>Votos!J29</f>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f>Votos!K29</f>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f>Votos!L29</f>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f>Votos!M29</f>
+        <v>0</v>
+      </c>
       <c r="R29">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+        <f>Votos!N29</f>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f>Votos!O29</f>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f>Votos!P29</f>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f>Votos!Q29</f>
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <f>Votos!R29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2000,22 +3860,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F30">
+        <f>Votos!B30</f>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f>Votos!C30</f>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f>Votos!D30</f>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f>Votos!E30</f>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f>Votos!F30</f>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f>Votos!G30</f>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f>Votos!H30</f>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f>Votos!I30</f>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f>Votos!J30</f>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f>Votos!K30</f>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f>Votos!L30</f>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f>Votos!M30</f>
+        <v>0</v>
+      </c>
       <c r="R30">
-        <v>5383</v>
+        <f>Votos!N30</f>
+        <v>0</v>
       </c>
       <c r="S30">
-        <f>SUM(R30:R35)</f>
-        <v>68699</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+        <f>Votos!O30</f>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f>Votos!P30</f>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f>Votos!Q30</f>
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <f>Votos!R30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31">
         <v>6</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2027,18 +3948,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F31">
+        <f>Votos!B31</f>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f>Votos!C31</f>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f>Votos!D31</f>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f>Votos!E31</f>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f>Votos!F31</f>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f>Votos!G31</f>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f>Votos!H31</f>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f>Votos!I31</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f>Votos!J31</f>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f>Votos!K31</f>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f>Votos!L31</f>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f>Votos!M31</f>
+        <v>0</v>
+      </c>
       <c r="R31">
-        <v>52920</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+        <f>Votos!N31</f>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f>Votos!O31</f>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f>Votos!P31</f>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f>Votos!Q31</f>
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <f>Votos!R31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32">
         <v>13</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2050,18 +4036,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F32">
+        <f>Votos!B32</f>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f>Votos!C32</f>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>Votos!D32</f>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f>Votos!E32</f>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f>Votos!F32</f>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f>Votos!G32</f>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f>Votos!H32</f>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <f>Votos!I32</f>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f>Votos!J32</f>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f>Votos!K32</f>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f>Votos!L32</f>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f>Votos!M32</f>
+        <v>0</v>
+      </c>
       <c r="R32">
-        <v>3229</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+        <f>Votos!N32</f>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f>Votos!O32</f>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f>Votos!P32</f>
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f>Votos!Q32</f>
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <f>Votos!R32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2073,18 +4124,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F33">
+        <f>Votos!B33</f>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f>Votos!C33</f>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f>Votos!D33</f>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f>Votos!E33</f>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f>Votos!F33</f>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f>Votos!G33</f>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f>Votos!H33</f>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f>Votos!I33</f>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f>Votos!J33</f>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f>Votos!K33</f>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f>Votos!L33</f>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f>Votos!M33</f>
+        <v>0</v>
+      </c>
       <c r="R33">
-        <v>4105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+        <f>Votos!N33</f>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f>Votos!O33</f>
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <f>Votos!P33</f>
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <f>Votos!Q33</f>
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <f>Votos!R33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2096,18 +4212,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F34">
+        <f>Votos!B34</f>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f>Votos!C34</f>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f>Votos!D34</f>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f>Votos!E34</f>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f>Votos!F34</f>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f>Votos!G34</f>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f>Votos!H34</f>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f>Votos!I34</f>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f>Votos!J34</f>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f>Votos!K34</f>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f>Votos!L34</f>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f>Votos!M34</f>
+        <v>0</v>
+      </c>
       <c r="R34">
-        <v>1943</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+        <f>Votos!N34</f>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f>Votos!O34</f>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f>Votos!P34</f>
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <f>Votos!Q34</f>
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <f>Votos!R34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35">
         <v>5</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2119,18 +4300,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="F35">
+        <f>Votos!B35</f>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f>Votos!C35</f>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f>Votos!D35</f>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f>Votos!E35</f>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f>Votos!F35</f>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f>Votos!G35</f>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f>Votos!H35</f>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f>Votos!I35</f>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f>Votos!J35</f>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f>Votos!K35</f>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f>Votos!L35</f>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f>Votos!M35</f>
+        <v>0</v>
+      </c>
       <c r="R35">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+        <f>Votos!N35</f>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f>Votos!O35</f>
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <f>Votos!P35</f>
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <f>Votos!Q35</f>
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <f>Votos!R35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2142,15 +4388,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <f>Votos!B36</f>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f>Votos!C36</f>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f>Votos!D36</f>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f>Votos!E36</f>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f>Votos!F36</f>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f>Votos!G36</f>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f>Votos!H36</f>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f>Votos!I36</f>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f>Votos!J36</f>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f>Votos!K36</f>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f>Votos!L36</f>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f>Votos!M36</f>
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <f>Votos!N36</f>
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <f>Votos!O36</f>
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <f>Votos!P36</f>
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <f>Votos!Q36</f>
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <f>Votos!R36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>2</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2162,15 +4476,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <f>Votos!B37</f>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f>Votos!C37</f>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f>Votos!D37</f>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f>Votos!E37</f>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f>Votos!F37</f>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f>Votos!G37</f>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f>Votos!H37</f>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <f>Votos!I37</f>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f>Votos!J37</f>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f>Votos!K37</f>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f>Votos!L37</f>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f>Votos!M37</f>
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <f>Votos!N37</f>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f>Votos!O37</f>
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <f>Votos!P37</f>
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <f>Votos!Q37</f>
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <f>Votos!R37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>3</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2182,15 +4564,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <f>Votos!B38</f>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f>Votos!C38</f>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f>Votos!D38</f>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f>Votos!E38</f>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f>Votos!F38</f>
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f>Votos!G38</f>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f>Votos!H38</f>
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <f>Votos!I38</f>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f>Votos!J38</f>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f>Votos!K38</f>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f>Votos!L38</f>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f>Votos!M38</f>
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <f>Votos!N38</f>
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <f>Votos!O38</f>
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <f>Votos!P38</f>
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <f>Votos!Q38</f>
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <f>Votos!R38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>4</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2202,15 +4652,83 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <f>Votos!B39</f>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f>Votos!C39</f>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f>Votos!D39</f>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f>Votos!E39</f>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f>Votos!F39</f>
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <f>Votos!G39</f>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f>Votos!H39</f>
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <f>Votos!I39</f>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f>Votos!J39</f>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f>Votos!K39</f>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f>Votos!L39</f>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f>Votos!M39</f>
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <f>Votos!N39</f>
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <f>Votos!O39</f>
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <f>Votos!P39</f>
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <f>Votos!Q39</f>
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <f>Votos!R39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>5</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2222,8 +4740,76 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <f>Votos!B40</f>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f>Votos!C40</f>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f>Votos!D40</f>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f>Votos!E40</f>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f>Votos!F40</f>
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <f>Votos!G40</f>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f>Votos!H40</f>
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <f>Votos!I40</f>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f>Votos!J40</f>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f>Votos!K40</f>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f>Votos!L40</f>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f>Votos!M40</f>
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <f>Votos!N40</f>
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <f>Votos!O40</f>
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <f>Votos!P40</f>
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <f>Votos!Q40</f>
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <f>Votos!R40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B41">
         <f>SUM(B2:B40)</f>
         <v>172</v>

--- a/camara.xlsx
+++ b/camara.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repository\Code\Legislativas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB11BB53-C368-4832-A0E1-CACEE4AA9E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05651E6A-C59A-4BC3-8F3C-3EB7B5E1843B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="490" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="618" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Votos" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="77">
   <si>
     <t>Afrodescendientes</t>
   </si>
@@ -250,9 +250,6 @@
     <t>Centro Democratico</t>
   </si>
   <si>
-    <t>OC -PIN</t>
-  </si>
-  <si>
     <t>CN</t>
   </si>
   <si>
@@ -263,6 +260,12 @@
   </si>
   <si>
     <t xml:space="preserve">Otros </t>
+  </si>
+  <si>
+    <t>OC-PIN</t>
+  </si>
+  <si>
+    <t>MIRA + CJL</t>
   </si>
 </sst>
 </file>
@@ -293,7 +296,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,6 +321,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -331,19 +364,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEC6602"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -452,7 +496,7 @@
                   <c:v>Conservador </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>OC -PIN</c:v>
+                  <c:v>OC-PIN</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Radical</c:v>
@@ -838,6 +882,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-CAEE-4F08-87E4-55F86CB81A6F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
@@ -856,6 +905,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-CAEE-4F08-87E4-55F86CB81A6F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
@@ -874,6 +928,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-CAEE-4F08-87E4-55F86CB81A6F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
@@ -891,6 +950,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-CAEE-4F08-87E4-55F86CB81A6F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="19"/>
@@ -908,6 +972,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-CAEE-4F08-87E4-55F86CB81A6F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="20"/>
@@ -925,6 +994,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-CAEE-4F08-87E4-55F86CB81A6F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="21"/>
@@ -942,6 +1016,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-CAEE-4F08-87E4-55F86CB81A6F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -955,7 +1034,7 @@
                   <c:v>Conservador </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>OC -PIN</c:v>
+                  <c:v>OC-PIN</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Radical</c:v>
@@ -1289,7 +1368,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1309,7 +1388,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="002060"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1329,7 +1408,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="002060"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1349,7 +1428,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1369,7 +1448,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FFC000"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1389,7 +1468,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:srgbClr val="EC6602"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1409,7 +1488,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1429,7 +1508,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7030A0"/>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1449,8 +1528,48 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-BE4C-4A8C-B1A4-835CD105D5EF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-B8EB-4A45-9DD9-4A86AD9A0645}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
@@ -1463,34 +1582,40 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Graficas!$B$2:$B$10</c:f>
+              <c:f>Graficas!$B$2:$B$12</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>MIRA + CJL</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Centro Democratico</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Partido Conservador</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Partido Liberal</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Cambio Radical</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>La U</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Partido Verde</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Polo Democratico</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Decencia</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>Blanco</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Otros </c:v>
                 </c:pt>
               </c:strCache>
@@ -1498,36 +1623,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graficas!$C$2:$C$10</c:f>
+              <c:f>Graficas!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>767775</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2380398</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1802994</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2447531</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2141213</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1824832</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>902024</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>438390</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>428526</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>2436123</c:v>
+                <c:pt idx="9">
+                  <c:v>815498</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>852850</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1539,6 +1670,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2786,15 +2918,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>807720</xdr:colOff>
+      <xdr:colOff>403860</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3088,10 +3220,10 @@
   <dimension ref="A1:Y40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R38" sqref="R38"/>
+      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3130,7 +3262,7 @@
         <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
         <v>40</v>
@@ -3178,10 +3310,10 @@
         <v>62</v>
       </c>
       <c r="T1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V1" t="s">
         <v>61</v>
@@ -4791,9 +4923,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39:XFD39"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4844,7 +4976,7 @@
       </c>
       <c r="H1" s="5" t="str">
         <f>Votos!D1</f>
-        <v>OC -PIN</v>
+        <v>OC-PIN</v>
       </c>
       <c r="I1" s="5" t="str">
         <f>Votos!E1</f>
@@ -9461,7 +9593,7 @@
         <v>172</v>
       </c>
       <c r="C41" s="3">
-        <f t="shared" ref="C41:E41" si="3">SUM(C2:C40)</f>
+        <f t="shared" ref="C41" si="3">SUM(C2:C40)</f>
         <v>14802031</v>
       </c>
       <c r="D41" s="3">
@@ -9577,10 +9709,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8AC3FE9-094D-4443-851C-9A37CBDBE8C4}">
-  <dimension ref="B1:C10"/>
+  <dimension ref="B1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9590,7 +9722,7 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1">
         <f>Calculos!C41</f>
@@ -9598,84 +9730,102 @@
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1">
+        <f>Calculos!J41+Calculos!K41</f>
+        <v>767775</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="1">
         <f>Calculos!T41</f>
         <v>2380398</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <f>Calculos!G41</f>
         <v>1802994</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <f>Calculos!F41</f>
         <v>2447531</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <f>Calculos!I41</f>
         <v>2141213</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <f>Calculos!L41</f>
         <v>1824832</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <f>Calculos!M41</f>
         <v>902024</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <f>Calculos!O41</f>
         <v>438390</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <f>Calculos!P41+Calculos!Q41+Calculos!R41</f>
         <v>428526</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="1">
-        <f>C1-SUM(C2:C9)</f>
-        <v>2436123</v>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="11">
+        <f>Calculos!AC41</f>
+        <v>815498</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="1">
+        <f>C1-SUM(C2:C11)</f>
+        <v>852850</v>
       </c>
     </row>
   </sheetData>
